--- a/OUTPUT/data_pull.xlsx
+++ b/OUTPUT/data_pull.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f49e68bd0eac4ab4/Documents/GitHub/my-python-scripts/OUTPUT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_23F921EDC5234E1B6C6008BF6D33B1DE47C095D5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EDF67C5-4465-4DD5-B4B9-2C1CBEAF096C}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2691E1E8AD3B8F1D3F834714852A3A9B797869D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49BF9759-4B99-4471-BE41-6EE84CD0600E}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="2100" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,274 +20,878 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="284">
+  <si>
+    <t>mv_id</t>
+  </si>
+  <si>
+    <t>mv_title</t>
+  </si>
+  <si>
+    <t>mv_url</t>
+  </si>
+  <si>
+    <t>mv_image</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>We Are Bulletproof, Pt.2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lE9lkSdtZeQ</t>
+  </si>
+  <si>
+    <t>tn_1_1.jpg</t>
+  </si>
+  <si>
+    <t>No More Dream</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rBG5L7UsUxA</t>
+  </si>
+  <si>
+    <t>tn_1_2.jpg</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>N.O</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mmgxPLLLyVo</t>
+  </si>
+  <si>
+    <t>tn_2_1.jpg</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Boy In Luv</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m8MfJg68oCs</t>
+  </si>
+  <si>
+    <t>tn_3_1.jpg</t>
+  </si>
+  <si>
+    <t>Just One Day</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dzAwJW107nk</t>
+  </si>
+  <si>
+    <t>tn_3_2.jpg</t>
+  </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PC</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>No More Dream (Japanese Ver.)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Q3n6wMdqnhk</t>
+  </si>
+  <si>
+    <t>tn_5_1.jpg</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t xml:space="preserve"> Regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B</t>
+    <t>BOY IN LUV (Japanese Ver.)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ocqCmfw145A</t>
+  </si>
+  <si>
+    <t>tn_6_1.jpg</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Danger</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=43r6lXilbcQ</t>
+  </si>
+  <si>
+    <t>tn_7_1.jpg</t>
+  </si>
+  <si>
+    <t>War of Hormone</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Hhph0_CdUHg</t>
+  </si>
+  <si>
+    <t>tn_7_2.jpg</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>9</t>
+    <t>Danger (Japanese Ver.)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/rdLkxbjK9aM</t>
+  </si>
+  <si>
+    <t>tn_8_1.jpg</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pink</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> White</t>
+    <t>I NEED U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jjskoRh8GTE</t>
+  </si>
+  <si>
+    <t>tn_10_1.jpg</t>
+  </si>
+  <si>
+    <t>DOPE (쩔어)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H8lYMWZD5P8</t>
+  </si>
+  <si>
+    <t>tn_10_2.jpg</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
+    <t>FOR YOU (Japanese Ver.)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/TTG6nxwdhyA</t>
+  </si>
+  <si>
+    <t>tn_11_1.jpg</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t xml:space="preserve"> Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Peach</t>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wKysONrSmew</t>
+  </si>
+  <si>
+    <t>tn_12_1.jpg</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t xml:space="preserve"> Limited Edition</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Christmas Special</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HMV</t>
+    <t>I NEED YOU (Japanese Ver.)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/LYAcYSmaLoc</t>
+  </si>
+  <si>
+    <t>tn_13_1.jpg</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t xml:space="preserve"> Poney Canyon Limited Ed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HMV Limited Ed.</t>
+    <t>RUN (Japanese Ver.)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/a16gTN7kOWU</t>
+  </si>
+  <si>
+    <t>tn_14_1.jpg</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t xml:space="preserve"> Night</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Day</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>불타오르네 FIRE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/4ujQOR2DMFM</t>
+  </si>
+  <si>
+    <t>tn_15_1.jpg</t>
+  </si>
+  <si>
+    <t>Save Me</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GZjt_sA2eso</t>
+  </si>
+  <si>
+    <t>tn_15_2.jpg</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t xml:space="preserve"> W</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> false</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> N</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> G</t>
+    <t>Intro: Boy Meets Evil</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iJJSh-eEdRk</t>
+  </si>
+  <si>
+    <t>tn_17_1.jpg</t>
+  </si>
+  <si>
+    <t>Blood Sweat &amp; Tears</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hmE9f-TEutc</t>
+  </si>
+  <si>
+    <t>tn_17_2.jpg</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t xml:space="preserve"> Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Right</t>
+    <t>Spring Day</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xEeFrLSkMm8</t>
+  </si>
+  <si>
+    <t>tn_18_1.jpg</t>
+  </si>
+  <si>
+    <t>Not Today</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9DwzBICPhdM</t>
+  </si>
+  <si>
+    <t>tn_18_2.jpg</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t xml:space="preserve"> C</t>
+    <t>血、汗、涙 (Japanese Ver.)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/7OX7dIRReSA</t>
+  </si>
+  <si>
+    <t>tn_19_1.jpg</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t xml:space="preserve"> L</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> O</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> V</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E</t>
+    <t>Serendipity</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BEMaH9Sm3lQ</t>
+  </si>
+  <si>
+    <t>tn_20_1.jpg</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MBdVXkSdhwU</t>
+  </si>
+  <si>
+    <t>tn_20_2.jpg</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
+    <t>MIC DROP (Japanese Ver.)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/TxyHwwYe86Q</t>
+  </si>
+  <si>
+    <t>tn_21_1.jpg</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
+    <t>CHECK FOR MVs</t>
+  </si>
+  <si>
+    <t>tn_22_1.jpg</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
-    <t xml:space="preserve"> Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R</t>
+    <t>Singularity</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=p8npDG2ulKQ</t>
+  </si>
+  <si>
+    <t>tn_23_1.jpg</t>
+  </si>
+  <si>
+    <t>FAKE LOVE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7C2z4GqqS5E</t>
+  </si>
+  <si>
+    <t>tn_23_2.jpg</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t xml:space="preserve"> S</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F</t>
+    <t>MIC Drop (Steve Aoki Remix)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kTlv5_Bs8aw</t>
+  </si>
+  <si>
+    <t>tn_24_1.jpg</t>
+  </si>
+  <si>
+    <t>tn_24_2.jpg</t>
+  </si>
+  <si>
+    <t>Epiphany</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fIkZOLsnoqY</t>
+  </si>
+  <si>
+    <t>tn_24_3.jpg</t>
+  </si>
+  <si>
+    <t>IDOL</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pBuZEGYXA6E</t>
+  </si>
+  <si>
+    <t>tn_24_4.jpg</t>
+  </si>
+  <si>
+    <t>IDOL (Fear. Nicki Minaj)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=K1scjjbfNsk</t>
+  </si>
+  <si>
+    <t>tn_24_5.jpg</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fanclub</t>
+    <t>Airplane Pt.2 (Japanese Ver.)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/CxnJf0tWu48</t>
+  </si>
+  <si>
+    <t>tn_25_1.jpg</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 04</t>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>https://youtu.be/M9Uy0opVF3s</t>
+  </si>
+  <si>
+    <t>tn_26_1.jpg</t>
+  </si>
+  <si>
+    <t>Boy with Luv (feat. Halsey)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XsX3ATc3FbA</t>
+  </si>
+  <si>
+    <t>tn_26_2.jpg</t>
+  </si>
+  <si>
+    <t>Boy with Luv (feat. Halsey) ARMY With Luv ver.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62E_xyj_oDA</t>
+  </si>
+  <si>
+    <t>tn_26_3.jpg</t>
+  </si>
+  <si>
+    <t>Make It Right</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y3rj2CDHF5c</t>
+  </si>
+  <si>
+    <t>tn_26_4.jpg</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Heartbeat</t>
+  </si>
+  <si>
+    <t>https://youtu.be/aKSxbt-O6TA</t>
+  </si>
+  <si>
+    <t>tn_27_1.jpg</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
+    <t>Lights</t>
+  </si>
+  <si>
+    <t>https://youtu.be/eaUpme4jalE</t>
+  </si>
+  <si>
+    <t>tn_28_1.jpg</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
+    <t>Interlude: Shadow</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PV1gCvzpSy0</t>
+  </si>
+  <si>
+    <t>tn_29_1.jpg</t>
+  </si>
+  <si>
+    <t>Ego</t>
+  </si>
+  <si>
+    <t>https://youtu.be/LmApDbvNCXg</t>
+  </si>
+  <si>
+    <t>tn_29_2.jpg</t>
+  </si>
+  <si>
+    <t>Black Swan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0lapF4DQPKQ</t>
+  </si>
+  <si>
+    <t>tn_29_3.jpg</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mPVDGOVjRQ0</t>
+  </si>
+  <si>
+    <t>tn_29_4.jpg</t>
+  </si>
+  <si>
+    <t>'ON' Kinetic Manifesto Film</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gwMa6gpoE9I</t>
+  </si>
+  <si>
+    <t>tn_29_5.jpg</t>
+  </si>
+  <si>
+    <t>We are Bulletproof: the Eternal</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7UWBYJjuIL0</t>
+  </si>
+  <si>
+    <t>tn_29_6.jpg</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
-    <t xml:space="preserve"> Standard Edition</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Limited Edition A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Limited Edition B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Limited Edition C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Limited Edition D</t>
+    <t>Stay Gold</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9IHwqdz8Xhw</t>
+  </si>
+  <si>
+    <t>tn_30_1.jpg</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t xml:space="preserve"> Deluxe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Essential</t>
+    <t>Life Goes On</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-5q5mZbe3V8</t>
+  </si>
+  <si>
+    <t>tn_31_1.jpg</t>
+  </si>
+  <si>
+    <t>Dynamite</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gdZLi9oWNZg</t>
+  </si>
+  <si>
+    <t>tn_31_2.jpg</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WMweEpGlu_U</t>
+  </si>
+  <si>
+    <t>tn_32_1.jpg</t>
+  </si>
+  <si>
+    <t>Butter (Hotter Remix)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YLXfyHsfFz0</t>
+  </si>
+  <si>
+    <t>tn_32_2.jpg</t>
+  </si>
+  <si>
+    <t>Butter (Cooler Remix)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ilqQJrbXghQ</t>
+  </si>
+  <si>
+    <t>tn_32_3.jpg</t>
   </si>
   <si>
     <t>58</t>
   </si>
   <si>
-    <t xml:space="preserve"> Peaches</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cream</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Standard</t>
+    <t>tn_58_1.jpg</t>
+  </si>
+  <si>
+    <t>Permission to Dance</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CuklIb9d3fI</t>
+  </si>
+  <si>
+    <t>tn_58_2.jpg</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>tn_59_1.jpg</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>tn_60_1.jpg</t>
+  </si>
+  <si>
+    <t>Dynamite (B-side)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BV2FdDmGiW0</t>
+  </si>
+  <si>
+    <t>tn_60_2.jpg</t>
+  </si>
+  <si>
+    <t>Dynamite (Choreography ver.)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BflFNMl_UWY</t>
+  </si>
+  <si>
+    <t>tn_60_3.jpg</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>tn_61_1.jpg</t>
+  </si>
+  <si>
+    <t>tn_61_2.jpg</t>
+  </si>
+  <si>
+    <t>tn_61_3.jpg</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Do You</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0XAxf8aFtL4</t>
+  </si>
+  <si>
+    <t>tn_34_1.jpg</t>
+  </si>
+  <si>
+    <t>농담 (Joke)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TfenCTabhDY</t>
+  </si>
+  <si>
+    <t>tn_34_2.jpg</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>seoul (prod. HONNE)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F8wI5ZosdRA</t>
+  </si>
+  <si>
+    <t>tn_35_1.jpg</t>
+  </si>
+  <si>
+    <t>moonchild</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G9ntaxClfrA</t>
+  </si>
+  <si>
+    <t>tn_35_2.jpg</t>
+  </si>
+  <si>
+    <t>forever rain</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Cvb76hBX_Oc</t>
+  </si>
+  <si>
+    <t>tn_35_3.jpg</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6uq3P7zeYyU</t>
+  </si>
+  <si>
+    <t>tn_36_1.jpg</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>tn_37_1.jpg</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Abyss</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aqtSOksH-NE</t>
+  </si>
+  <si>
+    <t>tn_38_1.jpg</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Agust D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3Y_Eiyg4bfk</t>
+  </si>
+  <si>
+    <t>tn_39_1.jpg</t>
+  </si>
+  <si>
+    <t>give it to me</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_Zgc12yL5ss</t>
+  </si>
+  <si>
+    <t>tn_39_2.jpg</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Agust D '대취타'</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qGjAWJ2zWWI</t>
+  </si>
+  <si>
+    <t>tn_40_1.jpg</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>SUGA's Interlude</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7d0dComB0EY</t>
+  </si>
+  <si>
+    <t>tn_42_1.jpg</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Eight</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TgOu00Mf3kI</t>
+  </si>
+  <si>
+    <t>tn_43_1.jpg</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Blueberry Eyes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TzFRVk2ektI</t>
+  </si>
+  <si>
+    <t>tn_44_1.jpg</t>
+  </si>
+  <si>
+    <t>Blueberry Eyes (Steve Aoki Remix)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IY6AY3NyZyM</t>
+  </si>
+  <si>
+    <t>tn_44_2.jpg</t>
+  </si>
+  <si>
+    <t>Blueberry Eyes (Lil Mosey and Olivia O'Brien Remix)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xcoEL6XwCN4</t>
+  </si>
+  <si>
+    <t>tn_44_3.jpg</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Daydream (백일몽)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OK3GJ0WIQ8s</t>
+  </si>
+  <si>
+    <t>tn_45_1.jpg</t>
+  </si>
+  <si>
+    <t>Airplane</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8O_MwlZ2dEg</t>
+  </si>
+  <si>
+    <t>tn_45_2.jpg</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Chicken Noodle Soup (feat. Becky G)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i23NEQEFpgQ</t>
+  </si>
+  <si>
+    <t>tn_46_1.jpg</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Blue Side</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OZD_EU_hMUQ</t>
+  </si>
+  <si>
+    <t>tn_47_1.jpg</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Christmas Love</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LDPSNwJPnGY</t>
+  </si>
+  <si>
+    <t>tn_49_1.jpg</t>
   </si>
   <si>
     <t>release_id</t>
-  </si>
-  <si>
-    <t>version_id</t>
-  </si>
-  <si>
-    <t>version_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -307,13 +911,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -650,1542 +1260,1528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
+        <v>65</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
+        <v>71</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
+        <v>72</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
+        <v>78</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
+        <v>79</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
+        <v>78</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
+        <v>82</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
+        <v>85</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
+        <v>86</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
+        <v>90</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
+        <v>89</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
+        <v>93</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
+        <v>97</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
+        <v>101</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
+        <v>103</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3</v>
+        <v>104</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
+        <v>107</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
+        <v>110</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3</v>
+        <v>111</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" t="s">
-        <v>36</v>
+        <v>93</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
+        <v>110</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" t="s">
-        <v>36</v>
+        <v>115</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
+        <v>110</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" t="s">
-        <v>36</v>
+        <v>118</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>25</v>
+        <v>110</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" t="s">
-        <v>36</v>
+        <v>121</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" t="s">
-        <v>36</v>
+        <v>125</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
+        <v>128</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" t="s">
-        <v>36</v>
+        <v>129</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>36</v>
+        <v>132</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
+        <v>128</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" t="s">
-        <v>36</v>
+        <v>135</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
+        <v>128</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" t="s">
-        <v>36</v>
+        <v>138</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" t="s">
-        <v>36</v>
+        <v>142</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="s">
-        <v>5</v>
+        <v>145</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" t="s">
-        <v>36</v>
+        <v>146</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
+        <v>149</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" t="s">
-        <v>36</v>
+        <v>150</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>25</v>
+        <v>149</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" t="s">
-        <v>36</v>
+        <v>153</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s">
-        <v>36</v>
+        <v>156</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" t="s">
-        <v>5</v>
+        <v>149</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" t="s">
-        <v>36</v>
+        <v>159</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
+        <v>149</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" t="s">
-        <v>36</v>
+        <v>162</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
-        <v>36</v>
+        <v>165</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
+        <v>168</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s">
-        <v>36</v>
+        <v>169</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
+        <v>172</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" t="s">
-        <v>36</v>
+        <v>173</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>25</v>
+        <v>172</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" t="s">
-        <v>36</v>
+        <v>176</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="E51" t="s">
-        <v>4</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" t="s">
-        <v>36</v>
+        <v>180</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="E52" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>5</v>
+        <v>179</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" t="s">
-        <v>36</v>
+        <v>183</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
+        <v>179</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" t="s">
-        <v>36</v>
+        <v>186</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="E54" t="s">
-        <v>4</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" t="s">
-        <v>25</v>
+        <v>189</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" t="s">
-        <v>36</v>
+        <v>180</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="E55" t="s">
-        <v>4</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1</v>
+        <v>189</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" t="s">
-        <v>36</v>
+        <v>191</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="E56" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>5</v>
+        <v>194</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" t="s">
-        <v>36</v>
+        <v>191</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
+        <v>196</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" t="s">
-        <v>36</v>
+        <v>176</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="E58" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" t="s">
-        <v>25</v>
+        <v>196</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" t="s">
-        <v>36</v>
+        <v>198</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="E59" t="s">
-        <v>4</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1</v>
+        <v>196</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" t="s">
-        <v>36</v>
+        <v>201</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>5</v>
+        <v>204</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s">
-        <v>36</v>
+        <v>176</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" t="s">
-        <v>7</v>
+        <v>204</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" t="s">
-        <v>36</v>
+        <v>198</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="E62" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" t="s">
-        <v>25</v>
+        <v>204</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" t="s">
-        <v>36</v>
+        <v>201</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="E63" t="s">
-        <v>4</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" t="s">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" t="s">
-        <v>36</v>
+        <v>209</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="E64" t="s">
-        <v>4</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" t="s">
-        <v>36</v>
+        <v>212</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="E65" t="s">
-        <v>4</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" t="s">
-        <v>5</v>
+        <v>215</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" t="s">
-        <v>36</v>
+        <v>216</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="E66" t="s">
-        <v>4</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
+        <v>215</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" t="s">
-        <v>36</v>
+        <v>219</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="E67" t="s">
-        <v>4</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" t="s">
-        <v>25</v>
+        <v>215</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" t="s">
-        <v>36</v>
+        <v>222</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="E68" t="s">
-        <v>4</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" t="s">
+        <v>225</v>
+      </c>
+      <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" t="s">
-        <v>36</v>
+        <v>226</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="E69" t="s">
-        <v>4</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
         <v>5</v>
       </c>
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s">
-        <v>36</v>
+      <c r="D70" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E70" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" t="s">
-        <v>7</v>
+        <v>231</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" t="s">
-        <v>36</v>
+        <v>232</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="E71" t="s">
-        <v>4</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72" t="s">
-        <v>25</v>
+        <v>235</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>44</v>
-      </c>
-      <c r="D72" t="s">
-        <v>36</v>
+        <v>236</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="E72" t="s">
-        <v>4</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>66</v>
-      </c>
-      <c r="B73" t="s">
-        <v>0</v>
+        <v>235</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>60</v>
-      </c>
-      <c r="D73" t="s">
-        <v>36</v>
+        <v>239</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="E73" t="s">
-        <v>4</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>67</v>
-      </c>
-      <c r="B74" t="s">
+        <v>242</v>
+      </c>
+      <c r="B74">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>62</v>
-      </c>
-      <c r="D74" t="s">
-        <v>36</v>
+        <v>243</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="E74" t="s">
-        <v>4</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" t="s">
-        <v>5</v>
+        <v>246</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>63</v>
-      </c>
-      <c r="D75" t="s">
-        <v>36</v>
+        <v>247</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="E75" t="s">
-        <v>4</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>67</v>
-      </c>
-      <c r="B76" t="s">
-        <v>7</v>
+        <v>250</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>64</v>
-      </c>
-      <c r="D76" t="s">
-        <v>36</v>
+        <v>251</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="E76" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>67</v>
-      </c>
-      <c r="B77" t="s">
-        <v>25</v>
+        <v>254</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>65</v>
-      </c>
-      <c r="D77" t="s">
-        <v>36</v>
+        <v>255</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="E77" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>68</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1</v>
+        <v>254</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" t="s">
-        <v>36</v>
+        <v>258</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="E78" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>68</v>
-      </c>
-      <c r="B79" t="s">
-        <v>5</v>
+        <v>254</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>70</v>
-      </c>
-      <c r="D79" t="s">
-        <v>36</v>
+        <v>261</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="E79" t="s">
-        <v>4</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>68</v>
-      </c>
-      <c r="B80" t="s">
-        <v>7</v>
+        <v>264</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>71</v>
-      </c>
-      <c r="D80" t="s">
-        <v>36</v>
+        <v>265</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="E80" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>68</v>
-      </c>
-      <c r="B81" t="s">
-        <v>25</v>
+        <v>264</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" t="s">
-        <v>36</v>
+        <v>268</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="E81" t="s">
-        <v>4</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82" t="s">
-        <v>0</v>
+        <v>271</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>73</v>
-      </c>
-      <c r="D82" t="s">
-        <v>36</v>
+        <v>272</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="E82" t="s">
-        <v>4</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>74</v>
-      </c>
-      <c r="B83" t="s">
+        <v>275</v>
+      </c>
+      <c r="B83">
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" t="s">
-        <v>36</v>
+        <v>276</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="E83" t="s">
-        <v>4</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>74</v>
-      </c>
-      <c r="B84" t="s">
-        <v>5</v>
+        <v>279</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>76</v>
-      </c>
-      <c r="D84" t="s">
-        <v>36</v>
+        <v>280</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="E84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>77</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85" t="s">
-        <v>36</v>
-      </c>
-      <c r="E85" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>77</v>
-      </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" t="s">
-        <v>79</v>
-      </c>
-      <c r="D86" t="s">
-        <v>36</v>
-      </c>
-      <c r="E86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>80</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
-        <v>81</v>
-      </c>
-      <c r="D87" t="s">
-        <v>36</v>
-      </c>
-      <c r="E87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
-        <v>70</v>
-      </c>
-      <c r="D88" t="s">
-        <v>36</v>
-      </c>
-      <c r="E88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>80</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
-        <v>71</v>
-      </c>
-      <c r="D89" t="s">
-        <v>36</v>
-      </c>
-      <c r="E89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>80</v>
-      </c>
-      <c r="B90" t="s">
-        <v>25</v>
-      </c>
-      <c r="C90" t="s">
-        <v>72</v>
-      </c>
-      <c r="D90" t="s">
-        <v>36</v>
-      </c>
-      <c r="E90" t="s">
-        <v>4</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>